--- a/TestAddressBook/src/test/resources/testData.xlsx
+++ b/TestAddressBook/src/test/resources/testData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TestId</t>
   </si>
@@ -40,13 +40,16 @@
   </si>
   <si>
     <t>the reserve</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -172,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -349,23 +353,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,9 +383,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
